--- a/tasks/EmployeeSystem/critical_projects.xlsx
+++ b/tasks/EmployeeSystem/critical_projects.xlsx
@@ -71,9 +71,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.78515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.12890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.84765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.9375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
